--- a/target/test-classes/testdata.xlsx
+++ b/target/test-classes/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7569c13478f5ad43/Pictures/seleniumProject/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABDACC1048FEB11F63725BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D230E4F5-3F55-4F62-A564-AC629D85EA1C}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="11_F25DC773A252ABDACC1048FEB11F63725BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79EFA1A4-3E5C-47E1-904B-C5CCFEC320CA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,18 +25,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>check_out</t>
   </si>
   <si>
     <t>check_in</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>Alexandria</t>
+  </si>
+  <si>
+    <t>Tolip Hotel Alexandria</t>
+  </si>
+  <si>
+    <t>22/05/2025</t>
+  </si>
+  <si>
+    <t>bed</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>twin</t>
+  </si>
+  <si>
+    <t>25/06/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,8 +96,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,26 +380,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>